--- a/biology/Botanique/Red_Topaz/Red_Topaz.xlsx
+++ b/biology/Botanique/Red_Topaz/Red_Topaz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Red Topaz est un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Droits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>RED TOPAZ est une variété enregistrée par l'Union Européenne :
 numéro de référence : 1700
@@ -543,11 +557,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cultivar Red Topaz est un mutant de la variété Topaz.
 Topaz résulte du croisement de Rubin (Golden Delicious  × Lord Lambourne) et de Vanda (Jolana × Lord Lambourne).
-Le mutant a été obtenu en Europe (République tchèque)[1].
+Le mutant a été obtenu en Europe (République tchèque).
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Épicarpe: plus rapidement rouge que la Topaz parente.
 Chair: ferme, peu sucrée, juteuse et délicieuse.
@@ -608,7 +626,9 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque l'environnement permet de peu traiter avec des produits chimiques pénétrants, la pomme peut se croquer avec la pelure pour bénéficier des antioxydants qu'elle contient.
 </t>
@@ -639,7 +659,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Variété diploïde.
 Floraison mi-saison; groupe pollinique D.
@@ -672,7 +694,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cultivar est moyennement vigoureux et convient bien aux régions humides.
 La floraison se fait sur le bois d'un an.
